--- a/reading/Instacart features.xlsx
+++ b/reading/Instacart features.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -565,10 +566,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,6 +575,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -664,16 +665,16 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -694,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -711,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -728,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -779,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -794,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -809,7 +810,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -873,7 +874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -890,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -907,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -924,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -995,7 +996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="11" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -1168,9 +1169,9 @@
       <c r="B31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="13" t="n">
+      <c r="E31" s="12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1181,79 +1182,79 @@
       <c r="B32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="13" t="n">
+      <c r="E32" s="12" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="7"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="7"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>93</v>
       </c>
@@ -1368,10 +1369,8 @@
   <autoFilter ref="A1:E45">
     <filterColumn colId="4">
       <filters>
-        <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val=""/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1400,8 +1399,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -1458,23 +1457,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -1491,7 +1490,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1502,7 +1501,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1516,7 +1515,22 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
+        <v>0.9518407</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="n">
+        <v>0.9518149</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="n">
+        <v>0.9518278</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/reading/Instacart features.xlsx
+++ b/reading/Instacart features.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -660,21 +661,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.1295546558704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.5587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -695,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -712,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -729,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -780,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -795,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -810,7 +811,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -857,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -874,7 +875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -891,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -908,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -925,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -953,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -970,7 +971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
@@ -983,7 +984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
@@ -996,7 +997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -1147,7 +1148,7 @@
       </c>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1200,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1211,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>87</v>
       </c>
@@ -1221,7 +1222,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>87</v>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
         <v>90</v>
       </c>
@@ -1243,7 +1244,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>90</v>
       </c>
@@ -1254,7 +1255,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>93</v>
       </c>
@@ -1366,14 +1367,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E45">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E45"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1399,8 +1393,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -1459,15 +1453,15 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
